--- a/Code/Results/Cases/Case_4_90/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_90/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.935662912412852</v>
+        <v>1.438419810470521</v>
       </c>
       <c r="C2">
-        <v>0.7388912770970819</v>
+        <v>0.2238222309472064</v>
       </c>
       <c r="D2">
-        <v>0.2008046120169382</v>
+        <v>0.07798299849743273</v>
       </c>
       <c r="E2">
-        <v>0.03482654650646655</v>
+        <v>0.06710533727783652</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.367831483741014</v>
+        <v>1.373402489101181</v>
       </c>
       <c r="H2">
-        <v>0.8061759777096142</v>
+        <v>1.233393531797105</v>
       </c>
       <c r="I2">
-        <v>0.7100562643302624</v>
+        <v>1.11533496149174</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1699160356518732</v>
+        <v>0.2138799314047475</v>
       </c>
       <c r="M2">
-        <v>0.4873431852671573</v>
+        <v>0.3024060800092414</v>
       </c>
       <c r="N2">
-        <v>0.7784938317490013</v>
+        <v>1.636194416556162</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.544805160098804</v>
+        <v>1.336932980063239</v>
       </c>
       <c r="C3">
-        <v>0.6411541158398393</v>
+        <v>0.1952902509472096</v>
       </c>
       <c r="D3">
-        <v>0.1734839091081284</v>
+        <v>0.07080067220292108</v>
       </c>
       <c r="E3">
-        <v>0.03422516242567397</v>
+        <v>0.06695115771748128</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.238684690823504</v>
+        <v>1.351429827076004</v>
       </c>
       <c r="H3">
-        <v>0.7545471565548212</v>
+        <v>1.229531673347481</v>
       </c>
       <c r="I3">
-        <v>0.6738434517225258</v>
+        <v>1.114865641306707</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1539260767550275</v>
+        <v>0.2110881171394254</v>
       </c>
       <c r="M3">
-        <v>0.4246149121273888</v>
+        <v>0.2869623549792806</v>
       </c>
       <c r="N3">
-        <v>0.8308302634004967</v>
+        <v>1.65664991341413</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.307382343688232</v>
+        <v>1.275266687061389</v>
       </c>
       <c r="C4">
-        <v>0.5816847038774995</v>
+        <v>0.1777265266140091</v>
       </c>
       <c r="D4">
-        <v>0.1569656351967126</v>
+        <v>0.06643052715951114</v>
       </c>
       <c r="E4">
-        <v>0.03386433171538883</v>
+        <v>0.06685702267133298</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.162583431370649</v>
+        <v>1.338928171771158</v>
       </c>
       <c r="H4">
-        <v>0.7245973758133601</v>
+        <v>1.227862139483236</v>
       </c>
       <c r="I4">
-        <v>0.6533334411444827</v>
+        <v>1.115244843096036</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.144354512526057</v>
+        <v>0.2094845302230723</v>
       </c>
       <c r="M4">
-        <v>0.3865961071686499</v>
+        <v>0.2776347045117831</v>
       </c>
       <c r="N4">
-        <v>0.8643959366698084</v>
+        <v>1.669831875395477</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.211185722057849</v>
+        <v>1.250299809336866</v>
       </c>
       <c r="C5">
-        <v>0.5575606133908479</v>
+        <v>0.1705575481012715</v>
       </c>
       <c r="D5">
-        <v>0.1502903584073607</v>
+        <v>0.06465955801908763</v>
       </c>
       <c r="E5">
-        <v>0.03371913188572506</v>
+        <v>0.06681879348147834</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.132302862390304</v>
+        <v>1.334081418448363</v>
       </c>
       <c r="H5">
-        <v>0.7127992221960682</v>
+        <v>1.227357874958784</v>
       </c>
       <c r="I5">
-        <v>0.645377580094447</v>
+        <v>1.115566762276295</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1405108236114359</v>
+        <v>0.2088588660681481</v>
       </c>
       <c r="M5">
-        <v>0.3712126713065658</v>
+        <v>0.2738725404491547</v>
       </c>
       <c r="N5">
-        <v>0.8784209628286099</v>
+        <v>1.675359880899757</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.195243367801538</v>
+        <v>1.246163899826513</v>
       </c>
       <c r="C6">
-        <v>0.5535607581806516</v>
+        <v>0.1693664340117493</v>
       </c>
       <c r="D6">
-        <v>0.149185082117981</v>
+        <v>0.0643660845444316</v>
       </c>
       <c r="E6">
-        <v>0.03369512522802243</v>
+        <v>0.06681245344172293</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.127316954536241</v>
+        <v>1.333291552125317</v>
       </c>
       <c r="H6">
-        <v>0.71086377193933</v>
+        <v>1.227284766988902</v>
       </c>
       <c r="I6">
-        <v>0.6440799227742247</v>
+        <v>1.115630314434064</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1398758691024184</v>
+        <v>0.208756654716602</v>
       </c>
       <c r="M6">
-        <v>0.3686644518408784</v>
+        <v>0.27325018695187</v>
       </c>
       <c r="N6">
-        <v>0.8807703861689991</v>
+        <v>1.676287233005294</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.306082868950625</v>
+        <v>1.27492931658071</v>
       </c>
       <c r="C7">
-        <v>0.5813589447899687</v>
+        <v>0.1776298907064984</v>
       </c>
       <c r="D7">
-        <v>0.1568753939210978</v>
+        <v>0.06640660331395054</v>
       </c>
       <c r="E7">
-        <v>0.03386236638854534</v>
+        <v>0.06685650656860798</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.162172187590087</v>
+        <v>1.338861804974115</v>
       </c>
       <c r="H7">
-        <v>0.7244366579542429</v>
+        <v>1.227854626316244</v>
       </c>
       <c r="I7">
-        <v>0.6532245574848119</v>
+        <v>1.115248507416482</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1443024517425471</v>
+        <v>0.2094759796929608</v>
       </c>
       <c r="M7">
-        <v>0.3863882167323212</v>
+        <v>0.2775838090419782</v>
       </c>
       <c r="N7">
-        <v>0.8645836956956661</v>
+        <v>1.669905795651303</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.800306314420766</v>
+        <v>1.403292782769654</v>
       </c>
       <c r="C8">
-        <v>0.7050627750816432</v>
+        <v>0.213993543438562</v>
       </c>
       <c r="D8">
-        <v>0.1913258227827441</v>
+        <v>0.07549819311945782</v>
       </c>
       <c r="E8">
-        <v>0.03461726639511298</v>
+        <v>0.06705206443997724</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.322593301803295</v>
+        <v>1.365620249904538</v>
       </c>
       <c r="H8">
-        <v>0.7879900435630418</v>
+        <v>1.231916113605678</v>
       </c>
       <c r="I8">
-        <v>0.6971923608761017</v>
+        <v>1.115034369050385</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1643483573348732</v>
+        <v>0.2128943572797652</v>
       </c>
       <c r="M8">
-        <v>0.4656017987250252</v>
+        <v>0.2970489294964196</v>
       </c>
       <c r="N8">
-        <v>0.7962342898805659</v>
+        <v>1.643118209007953</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.794303269037414</v>
+        <v>1.660165049440423</v>
       </c>
       <c r="C9">
-        <v>0.9532381810957702</v>
+        <v>0.2849630605430207</v>
       </c>
       <c r="D9">
-        <v>0.2613407109320747</v>
+        <v>0.09364899676756977</v>
       </c>
       <c r="E9">
-        <v>0.03617852860558823</v>
+        <v>0.06743989094694047</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.666095175782658</v>
+        <v>1.425999531134863</v>
       </c>
       <c r="H9">
-        <v>0.9281638308651736</v>
+        <v>1.245466281647367</v>
       </c>
       <c r="I9">
-        <v>0.7986535305759332</v>
+        <v>1.119930406894106</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2058664219455579</v>
+        <v>0.2204760189410564</v>
       </c>
       <c r="M9">
-        <v>0.6256405770894204</v>
+        <v>0.3364516739918173</v>
       </c>
       <c r="N9">
-        <v>0.6741931297119628</v>
+        <v>1.595533300262019</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.546638808240402</v>
+        <v>1.852076577010337</v>
       </c>
       <c r="C10">
-        <v>1.140991708166865</v>
+        <v>0.3369263068685768</v>
       </c>
       <c r="D10">
-        <v>0.3149261545891306</v>
+        <v>0.1071907457053385</v>
       </c>
       <c r="E10">
-        <v>0.03739741928789719</v>
+        <v>0.06772766796182861</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.941573377686098</v>
+        <v>1.475261145179076</v>
       </c>
       <c r="H10">
-        <v>1.043174232083288</v>
+        <v>1.258855170439972</v>
       </c>
       <c r="I10">
-        <v>0.8848741855199904</v>
+        <v>1.126799290534123</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2381047883536525</v>
+        <v>0.2265835801247533</v>
       </c>
       <c r="M10">
-        <v>0.7472610935049175</v>
+        <v>0.3661593949402047</v>
       </c>
       <c r="N10">
-        <v>0.592813109899204</v>
+        <v>1.563598130105291</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.895423248768907</v>
+        <v>1.940085867593666</v>
       </c>
       <c r="C11">
-        <v>1.228092348450275</v>
+        <v>0.360533627172515</v>
       </c>
       <c r="D11">
-        <v>0.3399320833263317</v>
+        <v>0.1133982744091213</v>
       </c>
       <c r="E11">
-        <v>0.03797348716406557</v>
+        <v>0.06785924738129889</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.073293784232362</v>
+        <v>1.498753784633607</v>
       </c>
       <c r="H11">
-        <v>1.098748784896799</v>
+        <v>1.265698117228226</v>
       </c>
       <c r="I11">
-        <v>0.9272341180256376</v>
+        <v>1.130641464957009</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2532447861246538</v>
+        <v>0.2294792305696802</v>
       </c>
       <c r="M11">
-        <v>0.803761794817369</v>
+        <v>0.3798408183545945</v>
       </c>
       <c r="N11">
-        <v>0.5578354418167137</v>
+        <v>1.549729264962149</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.028602665727249</v>
+        <v>1.97351497812258</v>
       </c>
       <c r="C12">
-        <v>1.261366380805157</v>
+        <v>0.3694690710851205</v>
       </c>
       <c r="D12">
-        <v>0.3495069701362894</v>
+        <v>0.1157558601856294</v>
       </c>
       <c r="E12">
-        <v>0.03819532037293527</v>
+        <v>0.06790917232127569</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.124224001408237</v>
+        <v>1.507806954203431</v>
       </c>
       <c r="H12">
-        <v>1.1203222233151</v>
+        <v>1.268398013982079</v>
       </c>
       <c r="I12">
-        <v>0.9437825536207782</v>
+        <v>1.132200100180626</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2590552152038583</v>
+        <v>0.2305926266167546</v>
       </c>
       <c r="M12">
-        <v>0.8253536884408277</v>
+        <v>0.3850457497687785</v>
       </c>
       <c r="N12">
-        <v>0.5449074996239638</v>
+        <v>1.544572438882231</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.99986830048789</v>
+        <v>1.966310886730241</v>
       </c>
       <c r="C13">
-        <v>1.254186461146276</v>
+        <v>0.3675448420942757</v>
       </c>
       <c r="D13">
-        <v>0.3474398870079796</v>
+        <v>0.1152478017196472</v>
       </c>
       <c r="E13">
-        <v>0.03814737030813653</v>
+        <v>0.06789841566195332</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.113206318065892</v>
+        <v>1.50585018888799</v>
       </c>
       <c r="H13">
-        <v>1.115651452657488</v>
+        <v>1.267811704784947</v>
       </c>
       <c r="I13">
-        <v>0.9401950058698532</v>
+        <v>1.131859800441035</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2578002463253029</v>
+        <v>0.2303520861215844</v>
       </c>
       <c r="M13">
-        <v>0.8206942882993786</v>
+        <v>0.3839237035555811</v>
       </c>
       <c r="N13">
-        <v>0.547677244060111</v>
+        <v>1.545678823016758</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.906356916976392</v>
+        <v>1.94283405758199</v>
       </c>
       <c r="C14">
-        <v>1.230823698496465</v>
+        <v>0.3612688325347335</v>
       </c>
       <c r="D14">
-        <v>0.340717604093129</v>
+        <v>0.1135920948152034</v>
       </c>
       <c r="E14">
-        <v>0.03799165992516595</v>
+        <v>0.0678633527436423</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.077461992917449</v>
+        <v>1.499495440336773</v>
       </c>
       <c r="H14">
-        <v>1.100512680664593</v>
+        <v>1.265918059853874</v>
       </c>
       <c r="I14">
-        <v>0.9285850474020663</v>
+        <v>1.130767613807876</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2537212106053914</v>
+        <v>0.2295704920508683</v>
       </c>
       <c r="M14">
-        <v>0.805534070957151</v>
+        <v>0.3802685485730493</v>
       </c>
       <c r="N14">
-        <v>0.556765347227401</v>
+        <v>1.549303103819064</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.849227153497395</v>
+        <v>1.928467096550662</v>
       </c>
       <c r="C15">
-        <v>1.216552733428841</v>
+        <v>0.3574240665552679</v>
       </c>
       <c r="D15">
-        <v>0.3366142535279693</v>
+        <v>0.1125788326654771</v>
       </c>
       <c r="E15">
-        <v>0.03789678204902458</v>
+        <v>0.06784188862155283</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.055708478393598</v>
+        <v>1.495623458642569</v>
       </c>
       <c r="H15">
-        <v>1.09131049104522</v>
+        <v>1.264772306679419</v>
       </c>
       <c r="I15">
-        <v>0.921541508393517</v>
+        <v>1.130112136428167</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2512330259772</v>
+        <v>0.2290939411870454</v>
       </c>
       <c r="M15">
-        <v>0.7962744290982755</v>
+        <v>0.3780327964681831</v>
       </c>
       <c r="N15">
-        <v>0.5623741473903614</v>
+        <v>1.551535463025186</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.523989978582392</v>
+        <v>1.846339215408818</v>
       </c>
       <c r="C16">
-        <v>1.135337454439195</v>
+        <v>0.3353829164194906</v>
       </c>
       <c r="D16">
-        <v>0.3133058846131718</v>
+        <v>0.1067860319439262</v>
       </c>
       <c r="E16">
-        <v>0.03736025432524137</v>
+        <v>0.06771908260231818</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.933104756134441</v>
+        <v>1.473747750293001</v>
       </c>
       <c r="H16">
-        <v>1.039612825336434</v>
+        <v>1.258423143363729</v>
       </c>
       <c r="I16">
-        <v>0.8821736853435667</v>
+        <v>1.12656267681411</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.237125651129972</v>
+        <v>0.2263967035592884</v>
       </c>
       <c r="M16">
-        <v>0.7435945515441205</v>
+        <v>0.3652686489947499</v>
       </c>
       <c r="N16">
-        <v>0.5951420432699202</v>
+        <v>1.564517771843136</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.326252633699198</v>
+        <v>1.796137781795323</v>
       </c>
       <c r="C17">
-        <v>1.085979789736825</v>
+        <v>0.3218536693285898</v>
       </c>
       <c r="D17">
-        <v>0.299178475644041</v>
+        <v>0.1032445444585193</v>
       </c>
       <c r="E17">
-        <v>0.03703703066364117</v>
+        <v>0.06764391804309078</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.859619290678609</v>
+        <v>1.460606046909504</v>
       </c>
       <c r="H17">
-        <v>1.008772709566387</v>
+        <v>1.254721127495742</v>
       </c>
       <c r="I17">
-        <v>0.8588646578982448</v>
+        <v>1.124569327118323</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2285988929242251</v>
+        <v>0.2247720831862239</v>
       </c>
       <c r="M17">
-        <v>0.7115966016993909</v>
+        <v>0.3574811073146904</v>
       </c>
       <c r="N17">
-        <v>0.6157832168554336</v>
+        <v>1.572650897588108</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.213124547413599</v>
+        <v>1.767329855419291</v>
       </c>
       <c r="C18">
-        <v>1.05774651988375</v>
+        <v>0.3140690647066435</v>
       </c>
       <c r="D18">
-        <v>0.2911110279693645</v>
+        <v>0.1012120208961846</v>
       </c>
       <c r="E18">
-        <v>0.03685311326201912</v>
+        <v>0.06760074811251737</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.817946587438342</v>
+        <v>1.453149175627004</v>
       </c>
       <c r="H18">
-        <v>0.9913367397680872</v>
+        <v>1.25266260649181</v>
       </c>
       <c r="I18">
-        <v>0.8457495273469391</v>
+        <v>1.123490307125678</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2237386068860161</v>
+        <v>0.2238486837781721</v>
       </c>
       <c r="M18">
-        <v>0.6933010089852871</v>
+        <v>0.3530176582839601</v>
       </c>
       <c r="N18">
-        <v>0.6278461620379545</v>
+        <v>1.57739082867451</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.174920638202138</v>
+        <v>1.757587423424184</v>
       </c>
       <c r="C19">
-        <v>1.048212638921513</v>
+        <v>0.3114328166453504</v>
       </c>
       <c r="D19">
-        <v>0.2883891013758415</v>
+        <v>0.1005246032208191</v>
       </c>
       <c r="E19">
-        <v>0.03679116773480828</v>
+        <v>0.06758614221348225</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.803935263699373</v>
+        <v>1.450641868990147</v>
       </c>
       <c r="H19">
-        <v>0.9854834357033724</v>
+        <v>1.251977769816591</v>
       </c>
       <c r="I19">
-        <v>0.8413574345172989</v>
+        <v>1.123136547464199</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2221003096722711</v>
+        <v>0.2235379323233104</v>
       </c>
       <c r="M19">
-        <v>0.6871243342967546</v>
+        <v>0.3515091135895148</v>
       </c>
       <c r="N19">
-        <v>0.6319625413851675</v>
+        <v>1.579006322470978</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.347238363482973</v>
+        <v>1.801474915329607</v>
       </c>
       <c r="C20">
-        <v>1.091217528442257</v>
+        <v>0.3232941826559852</v>
       </c>
       <c r="D20">
-        <v>0.3006762279616595</v>
+        <v>0.1036210807602487</v>
       </c>
       <c r="E20">
-        <v>0.03707122821750275</v>
+        <v>0.06765191292673478</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.867379554455852</v>
+        <v>1.461994449613996</v>
       </c>
       <c r="H20">
-        <v>1.012023974476875</v>
+        <v>1.255107884702994</v>
       </c>
       <c r="I20">
-        <v>0.8613153747590374</v>
+        <v>1.124774532711434</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2295019567038565</v>
+        <v>0.2249438842089262</v>
       </c>
       <c r="M20">
-        <v>0.714991391079451</v>
+        <v>0.3583084753231347</v>
       </c>
       <c r="N20">
-        <v>0.6135660304331196</v>
+        <v>1.571778696407552</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.933792182147329</v>
+        <v>1.949727004705608</v>
       </c>
       <c r="C21">
-        <v>1.237677603383077</v>
+        <v>0.3631123583144813</v>
       </c>
       <c r="D21">
-        <v>0.3426891040696489</v>
+        <v>0.1140782270059475</v>
       </c>
       <c r="E21">
-        <v>0.03803729063083061</v>
+        <v>0.06787364887387337</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.087931347881323</v>
+        <v>1.501357712680317</v>
       </c>
       <c r="H21">
-        <v>1.104944443919891</v>
+        <v>1.266471317739928</v>
       </c>
       <c r="I21">
-        <v>0.9319809142351403</v>
+        <v>1.131085597334888</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2549171494506624</v>
+        <v>0.2297996070802668</v>
       </c>
       <c r="M21">
-        <v>0.809981433254336</v>
+        <v>0.3813415026330134</v>
       </c>
       <c r="N21">
-        <v>0.5540871366836626</v>
+        <v>1.548235983622778</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.323652887424032</v>
+        <v>2.047212350456164</v>
       </c>
       <c r="C22">
-        <v>1.335119873631129</v>
+        <v>0.3891118842391279</v>
       </c>
       <c r="D22">
-        <v>0.3707712677309303</v>
+        <v>0.1209530250766875</v>
       </c>
       <c r="E22">
-        <v>0.03869050703759846</v>
+        <v>0.06801914251234642</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.238269537081237</v>
+        <v>1.527999679580631</v>
       </c>
       <c r="H22">
-        <v>1.168787457481187</v>
+        <v>1.274531317543563</v>
       </c>
       <c r="I22">
-        <v>0.9811549166229696</v>
+        <v>1.135814853421635</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2719825674814018</v>
+        <v>0.2330714746224487</v>
       </c>
       <c r="M22">
-        <v>0.8732221347296942</v>
+        <v>0.3965352490597809</v>
       </c>
       <c r="N22">
-        <v>0.5170769397325188</v>
+        <v>1.53340340974723</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.114922584418309</v>
+        <v>1.995128186443708</v>
       </c>
       <c r="C23">
-        <v>1.282938183135741</v>
+        <v>0.3752375312863023</v>
       </c>
       <c r="D23">
-        <v>0.3557206991487476</v>
+        <v>0.1172800733514237</v>
       </c>
       <c r="E23">
-        <v>0.03833965806599338</v>
+        <v>0.06794143620613013</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.157417522603595</v>
+        <v>1.513696151443924</v>
       </c>
       <c r="H23">
-        <v>1.134406469033081</v>
+        <v>1.270171444553654</v>
       </c>
       <c r="I23">
-        <v>0.9546158597054841</v>
+        <v>1.133235267324622</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2628295556482811</v>
+        <v>0.2313162127703805</v>
       </c>
       <c r="M23">
-        <v>0.839353446296542</v>
+        <v>0.3884132110739245</v>
       </c>
       <c r="N23">
-        <v>0.5366510079222664</v>
+        <v>1.541269044469711</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.337749002215048</v>
+        <v>1.799061830479616</v>
       </c>
       <c r="C24">
-        <v>1.088849104559642</v>
+        <v>0.32264294673314</v>
       </c>
       <c r="D24">
-        <v>0.2999989252322735</v>
+        <v>0.1034508377306054</v>
       </c>
       <c r="E24">
-        <v>0.03705576160281865</v>
+        <v>0.06764829830594365</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.863869357601374</v>
+        <v>1.461366446125766</v>
       </c>
       <c r="H24">
-        <v>1.010553165024533</v>
+        <v>1.254932814325002</v>
       </c>
       <c r="I24">
-        <v>0.8602065204597054</v>
+        <v>1.124681550652404</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2290935518494024</v>
+        <v>0.2248661798991805</v>
       </c>
       <c r="M24">
-        <v>0.7134562959345345</v>
+        <v>0.3579343795366654</v>
       </c>
       <c r="N24">
-        <v>0.6145678114866264</v>
+        <v>1.572172818947781</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.522070518361716</v>
+        <v>1.590117982065522</v>
       </c>
       <c r="C25">
-        <v>0.8853065128893434</v>
+        <v>0.2657972971276763</v>
       </c>
       <c r="D25">
-        <v>0.2420737009698968</v>
+        <v>0.08870320584213687</v>
       </c>
       <c r="E25">
-        <v>0.03574535942809476</v>
+        <v>0.06733448916795748</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.569540343603904</v>
+        <v>1.408810582879454</v>
       </c>
       <c r="H25">
-        <v>0.8883311630353887</v>
+        <v>1.241199707189054</v>
       </c>
       <c r="I25">
-        <v>0.7693418608769207</v>
+        <v>1.118033602743687</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1943603432191026</v>
+        <v>0.2183307628495896</v>
       </c>
       <c r="M25">
-        <v>0.5817282474988659</v>
+        <v>0.3256595459041307</v>
       </c>
       <c r="N25">
-        <v>0.7058302324855852</v>
+        <v>1.607875763147124</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_90/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_90/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.438419810470521</v>
+        <v>2.935662912412852</v>
       </c>
       <c r="C2">
-        <v>0.2238222309472064</v>
+        <v>0.7388912770970251</v>
       </c>
       <c r="D2">
-        <v>0.07798299849743273</v>
+        <v>0.2008046120167961</v>
       </c>
       <c r="E2">
-        <v>0.06710533727783652</v>
+        <v>0.03482654650644967</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.373402489101181</v>
+        <v>1.367831483741043</v>
       </c>
       <c r="H2">
-        <v>1.233393531797105</v>
+        <v>0.8061759777096995</v>
       </c>
       <c r="I2">
-        <v>1.11533496149174</v>
+        <v>0.7100562643302695</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2138799314047475</v>
+        <v>0.1699160356519585</v>
       </c>
       <c r="M2">
-        <v>0.3024060800092414</v>
+        <v>0.4873431852671501</v>
       </c>
       <c r="N2">
-        <v>1.636194416556162</v>
+        <v>0.7784938317490155</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.336932980063239</v>
+        <v>2.544805160098974</v>
       </c>
       <c r="C3">
-        <v>0.1952902509472096</v>
+        <v>0.6411541158400951</v>
       </c>
       <c r="D3">
-        <v>0.07080067220292108</v>
+        <v>0.1734839091079294</v>
       </c>
       <c r="E3">
-        <v>0.06695115771748128</v>
+        <v>0.03422516242567131</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.351429827076004</v>
+        <v>1.238684690823533</v>
       </c>
       <c r="H3">
-        <v>1.229531673347481</v>
+        <v>0.7545471565547928</v>
       </c>
       <c r="I3">
-        <v>1.114865641306707</v>
+        <v>0.67384345172254</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2110881171394254</v>
+        <v>0.1539260767550203</v>
       </c>
       <c r="M3">
-        <v>0.2869623549792806</v>
+        <v>0.4246149121273817</v>
       </c>
       <c r="N3">
-        <v>1.65664991341413</v>
+        <v>0.8308302634004843</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.275266687061389</v>
+        <v>2.307382343688232</v>
       </c>
       <c r="C4">
-        <v>0.1777265266140091</v>
+        <v>0.5816847038774995</v>
       </c>
       <c r="D4">
-        <v>0.06643052715951114</v>
+        <v>0.156965635196741</v>
       </c>
       <c r="E4">
-        <v>0.06685702267133298</v>
+        <v>0.03386433171540659</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.338928171771158</v>
+        <v>1.162583431370692</v>
       </c>
       <c r="H4">
-        <v>1.227862139483236</v>
+        <v>0.7245973758132607</v>
       </c>
       <c r="I4">
-        <v>1.115244843096036</v>
+        <v>0.6533334411444613</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2094845302230723</v>
+        <v>0.144354512525986</v>
       </c>
       <c r="M4">
-        <v>0.2776347045117831</v>
+        <v>0.3865961071686783</v>
       </c>
       <c r="N4">
-        <v>1.669831875395477</v>
+        <v>0.8643959366697906</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.250299809336866</v>
+        <v>2.211185722057905</v>
       </c>
       <c r="C5">
-        <v>0.1705575481012715</v>
+        <v>0.5575606133908195</v>
       </c>
       <c r="D5">
-        <v>0.06465955801908763</v>
+        <v>0.1502903584071476</v>
       </c>
       <c r="E5">
-        <v>0.06681879348147834</v>
+        <v>0.03371913188570641</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.334081418448363</v>
+        <v>1.132302862390262</v>
       </c>
       <c r="H5">
-        <v>1.227357874958784</v>
+        <v>0.712799222196054</v>
       </c>
       <c r="I5">
-        <v>1.115566762276295</v>
+        <v>0.6453775800944541</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2088588660681481</v>
+        <v>0.140510823611379</v>
       </c>
       <c r="M5">
-        <v>0.2738725404491547</v>
+        <v>0.3712126713065729</v>
       </c>
       <c r="N5">
-        <v>1.675359880899757</v>
+        <v>0.8784209628286206</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.246163899826513</v>
+        <v>2.195243367801481</v>
       </c>
       <c r="C6">
-        <v>0.1693664340117493</v>
+        <v>0.5535607581807938</v>
       </c>
       <c r="D6">
-        <v>0.0643660845444316</v>
+        <v>0.1491850821181657</v>
       </c>
       <c r="E6">
-        <v>0.06681245344172293</v>
+        <v>0.03369512522802331</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.333291552125317</v>
+        <v>1.127316954536241</v>
       </c>
       <c r="H6">
-        <v>1.227284766988902</v>
+        <v>0.71086377193933</v>
       </c>
       <c r="I6">
-        <v>1.115630314434064</v>
+        <v>0.6440799227742104</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.208756654716602</v>
+        <v>0.1398758691024682</v>
       </c>
       <c r="M6">
-        <v>0.27325018695187</v>
+        <v>0.3686644518408713</v>
       </c>
       <c r="N6">
-        <v>1.676287233005294</v>
+        <v>0.8807703861689848</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.27492931658071</v>
+        <v>2.306082868950682</v>
       </c>
       <c r="C7">
-        <v>0.1776298907064984</v>
+        <v>0.5813589447899687</v>
       </c>
       <c r="D7">
-        <v>0.06640660331395054</v>
+        <v>0.1568753939210694</v>
       </c>
       <c r="E7">
-        <v>0.06685650656860798</v>
+        <v>0.03386236638854712</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.338861804974115</v>
+        <v>1.162172187590102</v>
       </c>
       <c r="H7">
-        <v>1.227854626316244</v>
+        <v>0.7244366579541293</v>
       </c>
       <c r="I7">
-        <v>1.115248507416482</v>
+        <v>0.6532245574847977</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2094759796929608</v>
+        <v>0.1443024517424405</v>
       </c>
       <c r="M7">
-        <v>0.2775838090419782</v>
+        <v>0.3863882167323283</v>
       </c>
       <c r="N7">
-        <v>1.669905795651303</v>
+        <v>0.8645836956956803</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.403292782769654</v>
+        <v>2.800306314420595</v>
       </c>
       <c r="C8">
-        <v>0.213993543438562</v>
+        <v>0.7050627750816147</v>
       </c>
       <c r="D8">
-        <v>0.07549819311945782</v>
+        <v>0.1913258227827583</v>
       </c>
       <c r="E8">
-        <v>0.06705206443997724</v>
+        <v>0.03461726639510321</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.365620249904538</v>
+        <v>1.322593301803323</v>
       </c>
       <c r="H8">
-        <v>1.231916113605678</v>
+        <v>0.7879900435630418</v>
       </c>
       <c r="I8">
-        <v>1.115034369050385</v>
+        <v>0.6971923608760733</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2128943572797652</v>
+        <v>0.16434835733493</v>
       </c>
       <c r="M8">
-        <v>0.2970489294964196</v>
+        <v>0.4656017987250038</v>
       </c>
       <c r="N8">
-        <v>1.643118209007953</v>
+        <v>0.7962342898805037</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.660165049440423</v>
+        <v>3.794303269037471</v>
       </c>
       <c r="C9">
-        <v>0.2849630605430207</v>
+        <v>0.9532381810957133</v>
       </c>
       <c r="D9">
-        <v>0.09364899676756977</v>
+        <v>0.2613407109320747</v>
       </c>
       <c r="E9">
-        <v>0.06743989094694047</v>
+        <v>0.03617852860560955</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.425999531134863</v>
+        <v>1.666095175782687</v>
       </c>
       <c r="H9">
-        <v>1.245466281647367</v>
+        <v>0.928163830865202</v>
       </c>
       <c r="I9">
-        <v>1.119930406894106</v>
+        <v>0.798653530575919</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2204760189410564</v>
+        <v>0.2058664219455721</v>
       </c>
       <c r="M9">
-        <v>0.3364516739918173</v>
+        <v>0.6256405770894276</v>
       </c>
       <c r="N9">
-        <v>1.595533300262019</v>
+        <v>0.6741931297120018</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.852076577010337</v>
+        <v>4.546638808240175</v>
       </c>
       <c r="C10">
-        <v>0.3369263068685768</v>
+        <v>1.140991708166865</v>
       </c>
       <c r="D10">
-        <v>0.1071907457053385</v>
+        <v>0.3149261545891306</v>
       </c>
       <c r="E10">
-        <v>0.06772766796182861</v>
+        <v>0.03739741928786877</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.475261145179076</v>
+        <v>1.941573377686126</v>
       </c>
       <c r="H10">
-        <v>1.258855170439972</v>
+        <v>1.043174232083402</v>
       </c>
       <c r="I10">
-        <v>1.126799290534123</v>
+        <v>0.8848741855199833</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2265835801247533</v>
+        <v>0.2381047883536667</v>
       </c>
       <c r="M10">
-        <v>0.3661593949402047</v>
+        <v>0.7472610935049318</v>
       </c>
       <c r="N10">
-        <v>1.563598130105291</v>
+        <v>0.5928131098991933</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.940085867593666</v>
+        <v>4.89542324876885</v>
       </c>
       <c r="C11">
-        <v>0.360533627172515</v>
+        <v>1.228092348450275</v>
       </c>
       <c r="D11">
-        <v>0.1133982744091213</v>
+        <v>0.339932083326218</v>
       </c>
       <c r="E11">
-        <v>0.06785924738129889</v>
+        <v>0.03797348716406557</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.498753784633607</v>
+        <v>2.073293784232334</v>
       </c>
       <c r="H11">
-        <v>1.265698117228226</v>
+        <v>1.098748784896856</v>
       </c>
       <c r="I11">
-        <v>1.130641464957009</v>
+        <v>0.9272341180256234</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2294792305696802</v>
+        <v>0.2532447861246965</v>
       </c>
       <c r="M11">
-        <v>0.3798408183545945</v>
+        <v>0.8037617948173477</v>
       </c>
       <c r="N11">
-        <v>1.549729264962149</v>
+        <v>0.5578354418167137</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.97351497812258</v>
+        <v>5.028602665727135</v>
       </c>
       <c r="C12">
-        <v>0.3694690710851205</v>
+        <v>1.26136638080493</v>
       </c>
       <c r="D12">
-        <v>0.1157558601856294</v>
+        <v>0.3495069701362752</v>
       </c>
       <c r="E12">
-        <v>0.06790917232127569</v>
+        <v>0.03819532037292994</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.507806954203431</v>
+        <v>2.124224001408265</v>
       </c>
       <c r="H12">
-        <v>1.268398013982079</v>
+        <v>1.120322223315156</v>
       </c>
       <c r="I12">
-        <v>1.132200100180626</v>
+        <v>0.943782553620764</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2305926266167546</v>
+        <v>0.2590552152038441</v>
       </c>
       <c r="M12">
-        <v>0.3850457497687785</v>
+        <v>0.8253536884408277</v>
       </c>
       <c r="N12">
-        <v>1.544572438882231</v>
+        <v>0.5449074996239389</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.966310886730241</v>
+        <v>4.99986830048806</v>
       </c>
       <c r="C13">
-        <v>0.3675448420942757</v>
+        <v>1.254186461146048</v>
       </c>
       <c r="D13">
-        <v>0.1152478017196472</v>
+        <v>0.3474398870077522</v>
       </c>
       <c r="E13">
-        <v>0.06789841566195332</v>
+        <v>0.03814737030813387</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.50585018888799</v>
+        <v>2.113206318066005</v>
       </c>
       <c r="H13">
-        <v>1.267811704784947</v>
+        <v>1.115651452657517</v>
       </c>
       <c r="I13">
-        <v>1.131859800441035</v>
+        <v>0.9401950058698532</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2303520861215844</v>
+        <v>0.257800246325246</v>
       </c>
       <c r="M13">
-        <v>0.3839237035555811</v>
+        <v>0.8206942882993857</v>
       </c>
       <c r="N13">
-        <v>1.545678823016758</v>
+        <v>0.5476772440601074</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.94283405758199</v>
+        <v>4.906356916976392</v>
       </c>
       <c r="C14">
-        <v>0.3612688325347335</v>
+        <v>1.230823698496636</v>
       </c>
       <c r="D14">
-        <v>0.1135920948152034</v>
+        <v>0.3407176040930153</v>
       </c>
       <c r="E14">
-        <v>0.0678633527436423</v>
+        <v>0.03799165992518105</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.499495440336773</v>
+        <v>2.077461992917506</v>
       </c>
       <c r="H14">
-        <v>1.265918059853874</v>
+        <v>1.100512680664679</v>
       </c>
       <c r="I14">
-        <v>1.130767613807876</v>
+        <v>0.9285850474020805</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2295704920508683</v>
+        <v>0.2537212106054056</v>
       </c>
       <c r="M14">
-        <v>0.3802685485730493</v>
+        <v>0.8055340709571368</v>
       </c>
       <c r="N14">
-        <v>1.549303103819064</v>
+        <v>0.5567653472273477</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.928467096550662</v>
+        <v>4.849227153497452</v>
       </c>
       <c r="C15">
-        <v>0.3574240665552679</v>
+        <v>1.216552733429182</v>
       </c>
       <c r="D15">
-        <v>0.1125788326654771</v>
+        <v>0.3366142535278698</v>
       </c>
       <c r="E15">
-        <v>0.06784188862155283</v>
+        <v>0.03789678204905833</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.495623458642569</v>
+        <v>2.055708478393655</v>
       </c>
       <c r="H15">
-        <v>1.264772306679419</v>
+        <v>1.091310491045334</v>
       </c>
       <c r="I15">
-        <v>1.130112136428167</v>
+        <v>0.921541508393517</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2290939411870454</v>
+        <v>0.2512330259772853</v>
       </c>
       <c r="M15">
-        <v>0.3780327964681831</v>
+        <v>0.7962744290982755</v>
       </c>
       <c r="N15">
-        <v>1.551535463025186</v>
+        <v>0.562374147390404</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.846339215408818</v>
+        <v>4.523989978582392</v>
       </c>
       <c r="C16">
-        <v>0.3353829164194906</v>
+        <v>1.135337454439394</v>
       </c>
       <c r="D16">
-        <v>0.1067860319439262</v>
+        <v>0.3133058846133139</v>
       </c>
       <c r="E16">
-        <v>0.06771908260231818</v>
+        <v>0.03736025432521117</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.473747750293001</v>
+        <v>1.933104756134469</v>
       </c>
       <c r="H16">
-        <v>1.258423143363729</v>
+        <v>1.039612825336548</v>
       </c>
       <c r="I16">
-        <v>1.12656267681411</v>
+        <v>0.8821736853435738</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2263967035592884</v>
+        <v>0.2371256511299293</v>
       </c>
       <c r="M16">
-        <v>0.3652686489947499</v>
+        <v>0.7435945515440991</v>
       </c>
       <c r="N16">
-        <v>1.564517771843136</v>
+        <v>0.5951420432699734</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.796137781795323</v>
+        <v>4.326252633699085</v>
       </c>
       <c r="C17">
-        <v>0.3218536693285898</v>
+        <v>1.085979789736655</v>
       </c>
       <c r="D17">
-        <v>0.1032445444585193</v>
+        <v>0.2991784756441405</v>
       </c>
       <c r="E17">
-        <v>0.06764391804309078</v>
+        <v>0.03703703066364117</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.460606046909504</v>
+        <v>1.859619290678609</v>
       </c>
       <c r="H17">
-        <v>1.254721127495742</v>
+        <v>1.008772709566387</v>
       </c>
       <c r="I17">
-        <v>1.124569327118323</v>
+        <v>0.8588646578982448</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2247720831862239</v>
+        <v>0.2285988929242819</v>
       </c>
       <c r="M17">
-        <v>0.3574811073146904</v>
+        <v>0.7115966016993838</v>
       </c>
       <c r="N17">
-        <v>1.572650897588108</v>
+        <v>0.6157832168554265</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.767329855419291</v>
+        <v>4.213124547413599</v>
       </c>
       <c r="C18">
-        <v>0.3140690647066435</v>
+        <v>1.05774651988412</v>
       </c>
       <c r="D18">
-        <v>0.1012120208961846</v>
+        <v>0.2911110279694782</v>
       </c>
       <c r="E18">
-        <v>0.06760074811251737</v>
+        <v>0.0368531132619685</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.453149175627004</v>
+        <v>1.817946587438342</v>
       </c>
       <c r="H18">
-        <v>1.25266260649181</v>
+        <v>0.9913367397681725</v>
       </c>
       <c r="I18">
-        <v>1.123490307125678</v>
+        <v>0.8457495273469391</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2238486837781721</v>
+        <v>0.2237386068860587</v>
       </c>
       <c r="M18">
-        <v>0.3530176582839601</v>
+        <v>0.69330100898528</v>
       </c>
       <c r="N18">
-        <v>1.57739082867451</v>
+        <v>0.6278461620380114</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.757587423424184</v>
+        <v>4.174920638201911</v>
       </c>
       <c r="C19">
-        <v>0.3114328166453504</v>
+        <v>1.048212638920972</v>
       </c>
       <c r="D19">
-        <v>0.1005246032208191</v>
+        <v>0.2883891013757278</v>
       </c>
       <c r="E19">
-        <v>0.06758614221348225</v>
+        <v>0.03679116773482871</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.450641868990147</v>
+        <v>1.803935263699344</v>
       </c>
       <c r="H19">
-        <v>1.251977769816591</v>
+        <v>0.9854834357035145</v>
       </c>
       <c r="I19">
-        <v>1.123136547464199</v>
+        <v>0.8413574345172918</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2235379323233104</v>
+        <v>0.2221003096722427</v>
       </c>
       <c r="M19">
-        <v>0.3515091135895148</v>
+        <v>0.6871243342967475</v>
       </c>
       <c r="N19">
-        <v>1.579006322470978</v>
+        <v>0.6319625413851391</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.801474915329607</v>
+        <v>4.347238363482973</v>
       </c>
       <c r="C20">
-        <v>0.3232941826559852</v>
+        <v>1.091217528442087</v>
       </c>
       <c r="D20">
-        <v>0.1036210807602487</v>
+        <v>0.3006762279616879</v>
       </c>
       <c r="E20">
-        <v>0.06765191292673478</v>
+        <v>0.0370712282175143</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.461994449613996</v>
+        <v>1.867379554455908</v>
       </c>
       <c r="H20">
-        <v>1.255107884702994</v>
+        <v>1.012023974476904</v>
       </c>
       <c r="I20">
-        <v>1.124774532711434</v>
+        <v>0.8613153747590658</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2249438842089262</v>
+        <v>0.2295019567038423</v>
       </c>
       <c r="M20">
-        <v>0.3583084753231347</v>
+        <v>0.7149913910794368</v>
       </c>
       <c r="N20">
-        <v>1.571778696407552</v>
+        <v>0.6135660304331765</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.949727004705608</v>
+        <v>4.933792182147272</v>
       </c>
       <c r="C21">
-        <v>0.3631123583144813</v>
+        <v>1.237677603383133</v>
       </c>
       <c r="D21">
-        <v>0.1140782270059475</v>
+        <v>0.3426891040696631</v>
       </c>
       <c r="E21">
-        <v>0.06787364887387337</v>
+        <v>0.03803729063085459</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.501357712680317</v>
+        <v>2.087931347881209</v>
       </c>
       <c r="H21">
-        <v>1.266471317739928</v>
+        <v>1.104944443919777</v>
       </c>
       <c r="I21">
-        <v>1.131085597334888</v>
+        <v>0.9319809142351261</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2297996070802668</v>
+        <v>0.254917149450705</v>
       </c>
       <c r="M21">
-        <v>0.3813415026330134</v>
+        <v>0.8099814332543289</v>
       </c>
       <c r="N21">
-        <v>1.548235983622778</v>
+        <v>0.5540871366836804</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.047212350456164</v>
+        <v>5.323652887423862</v>
       </c>
       <c r="C22">
-        <v>0.3891118842391279</v>
+        <v>1.335119873631243</v>
       </c>
       <c r="D22">
-        <v>0.1209530250766875</v>
+        <v>0.3707712677308308</v>
       </c>
       <c r="E22">
-        <v>0.06801914251234642</v>
+        <v>0.03869050703760024</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.527999679580631</v>
+        <v>2.238269537081209</v>
       </c>
       <c r="H22">
-        <v>1.274531317543563</v>
+        <v>1.168787457481187</v>
       </c>
       <c r="I22">
-        <v>1.135814853421635</v>
+        <v>0.9811549166229838</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2330714746224487</v>
+        <v>0.2719825674813592</v>
       </c>
       <c r="M22">
-        <v>0.3965352490597809</v>
+        <v>0.8732221347296942</v>
       </c>
       <c r="N22">
-        <v>1.53340340974723</v>
+        <v>0.5170769397325756</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.995128186443708</v>
+        <v>5.11492258441848</v>
       </c>
       <c r="C23">
-        <v>0.3752375312863023</v>
+        <v>1.282938183135741</v>
       </c>
       <c r="D23">
-        <v>0.1172800733514237</v>
+        <v>0.3557206991488329</v>
       </c>
       <c r="E23">
-        <v>0.06794143620613013</v>
+        <v>0.0383396580660067</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.513696151443924</v>
+        <v>2.157417522603595</v>
       </c>
       <c r="H23">
-        <v>1.270171444553654</v>
+        <v>1.134406469033081</v>
       </c>
       <c r="I23">
-        <v>1.133235267324622</v>
+        <v>0.9546158597054841</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2313162127703805</v>
+        <v>0.2628295556482527</v>
       </c>
       <c r="M23">
-        <v>0.3884132110739245</v>
+        <v>0.8393534462965491</v>
       </c>
       <c r="N23">
-        <v>1.541269044469711</v>
+        <v>0.5366510079222628</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.799061830479616</v>
+        <v>4.337749002215162</v>
       </c>
       <c r="C24">
-        <v>0.32264294673314</v>
+        <v>1.088849104559984</v>
       </c>
       <c r="D24">
-        <v>0.1034508377306054</v>
+        <v>0.2999989252322592</v>
       </c>
       <c r="E24">
-        <v>0.06764829830594365</v>
+        <v>0.03705576160280089</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.461366446125766</v>
+        <v>1.863869357601345</v>
       </c>
       <c r="H24">
-        <v>1.254932814325002</v>
+        <v>1.010553165024533</v>
       </c>
       <c r="I24">
-        <v>1.124681550652404</v>
+        <v>0.8602065204596911</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2248661798991805</v>
+        <v>0.2290935518493882</v>
       </c>
       <c r="M24">
-        <v>0.3579343795366654</v>
+        <v>0.7134562959345274</v>
       </c>
       <c r="N24">
-        <v>1.572172818947781</v>
+        <v>0.6145678114866584</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.590117982065522</v>
+        <v>3.522070518361772</v>
       </c>
       <c r="C25">
-        <v>0.2657972971276763</v>
+        <v>0.8853065128892297</v>
       </c>
       <c r="D25">
-        <v>0.08870320584213687</v>
+        <v>0.2420737009700247</v>
       </c>
       <c r="E25">
-        <v>0.06733448916795748</v>
+        <v>0.03574535942812407</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.408810582879454</v>
+        <v>1.569540343603933</v>
       </c>
       <c r="H25">
-        <v>1.241199707189054</v>
+        <v>0.8883311630353887</v>
       </c>
       <c r="I25">
-        <v>1.118033602743687</v>
+        <v>0.7693418608769136</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2183307628495896</v>
+        <v>0.1943603432190883</v>
       </c>
       <c r="M25">
-        <v>0.3256595459041307</v>
+        <v>0.5817282474988872</v>
       </c>
       <c r="N25">
-        <v>1.607875763147124</v>
+        <v>0.7058302324855816</v>
       </c>
       <c r="O25">
         <v>0</v>
